--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -10,6 +10,7 @@
     <sheet name="build" sheetId="5" r:id="rId1"/>
     <sheet name="gather" sheetId="20" r:id="rId2"/>
     <sheet name="recipe" sheetId="12" r:id="rId3"/>
+    <sheet name="done" sheetId="21" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
   <si>
     <t>pine</t>
   </si>
@@ -520,6 +521,43 @@
   <si>
     <t>Prestige</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tanning frames</t>
+  </si>
+  <si>
+    <t>sewing table</t>
+  </si>
+  <si>
+    <t>Chanderian Plank</t>
+  </si>
+  <si>
+    <t>jeweler's workbench</t>
+  </si>
+  <si>
+    <t>Silver Ingot</t>
+  </si>
+  <si>
+    <t>butcher's table</t>
+  </si>
+  <si>
+    <t>Odiemel Ingot</t>
+  </si>
+  <si>
+    <t>stove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bookcase</t>
+  </si>
+  <si>
+    <t>Archeology Dictionary</t>
+  </si>
+  <si>
+    <t>Stone Ancient Tablet</t>
+  </si>
+  <si>
+    <t>Noble Artifact Fragment</t>
   </si>
 </sst>
 </file>
@@ -1680,10 +1718,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O81"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="O61" sqref="O61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1860,1281 +1898,481 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>158</v>
       </c>
       <c r="B7">
-        <v>400</v>
+        <v>25</v>
       </c>
       <c r="C7">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="D7">
-        <v>75</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N7" t="s">
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
-      </c>
-      <c r="E8" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E8">
+        <v>38</v>
       </c>
       <c r="F8">
-        <v>37</v>
-      </c>
-      <c r="G8">
-        <v>35</v>
-      </c>
-      <c r="H8">
-        <v>36</v>
-      </c>
-      <c r="I8">
-        <v>32</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8">
-        <v>36</v>
-      </c>
-      <c r="L8">
-        <v>36</v>
-      </c>
-      <c r="M8">
-        <v>36</v>
-      </c>
-      <c r="N8">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s">
-        <v>75</v>
+        <v>82</v>
+      </c>
+      <c r="E9">
+        <v>38</v>
       </c>
       <c r="F9">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <v>35</v>
-      </c>
-      <c r="H9">
-        <v>35</v>
-      </c>
-      <c r="I9">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10">
+        <v>36</v>
+      </c>
+      <c r="F10">
         <v>33</v>
       </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9">
-        <v>36</v>
-      </c>
-      <c r="L9">
-        <v>35</v>
-      </c>
-      <c r="M9">
-        <v>36</v>
-      </c>
-      <c r="N9">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12">
-        <v>300</v>
-      </c>
-      <c r="C12">
-        <v>100</v>
-      </c>
-      <c r="D12">
-        <v>50</v>
-      </c>
-      <c r="E12">
-        <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>111</v>
-      </c>
-      <c r="K12" t="s">
-        <v>107</v>
-      </c>
-      <c r="L12" t="s">
-        <v>112</v>
-      </c>
-      <c r="M12" t="s">
-        <v>113</v>
-      </c>
-      <c r="N12" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>34</v>
-      </c>
-      <c r="G13">
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11">
         <v>31</v>
       </c>
-      <c r="H13">
-        <v>31</v>
-      </c>
-      <c r="I13">
-        <v>30</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K13">
+      <c r="F11">
         <v>32</v>
       </c>
-      <c r="L13">
-        <v>31</v>
-      </c>
-      <c r="M13">
-        <v>32</v>
-      </c>
-      <c r="N13">
-        <v>31</v>
-      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>62</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" t="s">
-        <v>116</v>
-      </c>
-      <c r="F14">
-        <v>32</v>
-      </c>
-      <c r="G14">
-        <v>31</v>
-      </c>
-      <c r="H14">
-        <v>31</v>
-      </c>
-      <c r="I14">
-        <v>30</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14">
-        <v>31</v>
-      </c>
-      <c r="L14">
-        <v>31</v>
-      </c>
-      <c r="M14">
-        <v>31</v>
-      </c>
-      <c r="N14">
-        <v>31</v>
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>72</v>
-      </c>
-      <c r="E15" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15">
+        <v>38</v>
+      </c>
+      <c r="F15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19">
+        <v>38</v>
+      </c>
+      <c r="F19">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E20">
+        <v>38</v>
+      </c>
+      <c r="F20">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
       </c>
-      <c r="F15">
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21">
         <v>34</v>
       </c>
-      <c r="G15">
-        <v>31</v>
-      </c>
-      <c r="H15">
-        <v>31</v>
-      </c>
-      <c r="I15">
-        <v>31</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
-      </c>
-      <c r="K15">
-        <v>31</v>
-      </c>
-      <c r="L15">
-        <v>31</v>
-      </c>
-      <c r="M15">
-        <v>31</v>
-      </c>
-      <c r="N15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" t="s">
-        <v>118</v>
-      </c>
-      <c r="D16" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16">
-        <v>24</v>
-      </c>
-      <c r="G16">
-        <v>30</v>
-      </c>
-      <c r="H16">
-        <v>30</v>
-      </c>
-      <c r="I16">
-        <v>31</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16">
-        <v>30</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>30</v>
-      </c>
-      <c r="N16">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>106</v>
-      </c>
-      <c r="B19">
-        <v>120</v>
-      </c>
-      <c r="C19">
-        <v>20</v>
-      </c>
-      <c r="D19">
-        <v>20</v>
-      </c>
-      <c r="E19">
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>38</v>
+      </c>
+      <c r="F22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23">
+        <v>38</v>
+      </c>
+      <c r="F23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>162</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
         <v>10</v>
       </c>
-      <c r="G19" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" t="s">
-        <v>110</v>
-      </c>
-      <c r="I19" t="s">
-        <v>111</v>
-      </c>
-      <c r="K19" t="s">
-        <v>107</v>
-      </c>
-      <c r="L19" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" t="s">
-        <v>113</v>
-      </c>
-      <c r="N19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E20" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20">
-        <v>31</v>
-      </c>
-      <c r="G20">
-        <v>27</v>
-      </c>
-      <c r="H20">
-        <v>27</v>
-      </c>
-      <c r="I20">
-        <v>25</v>
-      </c>
-      <c r="J20" t="s">
-        <v>83</v>
-      </c>
-      <c r="K20">
-        <v>28</v>
-      </c>
-      <c r="L20">
-        <v>27</v>
-      </c>
-      <c r="M20">
-        <v>28</v>
-      </c>
-      <c r="N20">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" t="s">
-        <v>72</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>31</v>
-      </c>
-      <c r="G21">
-        <v>27</v>
-      </c>
-      <c r="H21">
-        <v>27</v>
-      </c>
-      <c r="I21">
-        <v>26</v>
-      </c>
-      <c r="J21" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21">
-        <v>28</v>
-      </c>
-      <c r="L21">
-        <v>27</v>
-      </c>
-      <c r="M21">
-        <v>28</v>
-      </c>
-      <c r="N21">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" t="s">
-        <v>118</v>
-      </c>
-      <c r="D22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>31</v>
-      </c>
-      <c r="G22">
-        <v>27</v>
-      </c>
-      <c r="H22">
-        <v>27</v>
-      </c>
-      <c r="I22">
-        <v>26</v>
-      </c>
-      <c r="J22" t="s">
-        <v>83</v>
-      </c>
-      <c r="K22">
-        <v>27</v>
-      </c>
-      <c r="L22">
-        <v>27</v>
-      </c>
-      <c r="M22">
-        <v>27</v>
-      </c>
-      <c r="N22">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23">
-        <v>20</v>
-      </c>
-      <c r="G23">
-        <v>26</v>
-      </c>
-      <c r="H23">
-        <v>26</v>
-      </c>
-      <c r="I23">
-        <v>27</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
-      </c>
-      <c r="K23">
-        <v>26</v>
-      </c>
-      <c r="L23">
-        <v>26</v>
-      </c>
-      <c r="M23">
-        <v>26</v>
-      </c>
-      <c r="N23">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26">
-        <v>20</v>
-      </c>
-      <c r="C26">
+      <c r="D26">
         <v>5</v>
       </c>
-      <c r="D26">
-        <v>10</v>
-      </c>
-      <c r="E26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C27" t="s">
         <v>63</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" t="s">
-        <v>82</v>
+        <v>163</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
       </c>
       <c r="F27">
-        <v>38</v>
-      </c>
-      <c r="G27">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>159</v>
       </c>
       <c r="C28" t="s">
         <v>63</v>
       </c>
       <c r="D28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" t="s">
         <v>82</v>
       </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
       <c r="F28">
-        <v>38</v>
-      </c>
-      <c r="G28">
         <v>40</v>
       </c>
-      <c r="H28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
-        <v>81</v>
+        <v>159</v>
       </c>
       <c r="C29" t="s">
         <v>63</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" t="s">
         <v>65</v>
       </c>
+      <c r="E29">
+        <v>36</v>
+      </c>
       <c r="F29">
-        <v>30</v>
-      </c>
-      <c r="G29">
-        <v>40</v>
-      </c>
-      <c r="H29" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C33" t="s">
         <v>63</v>
       </c>
-      <c r="D30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30">
-        <v>30</v>
-      </c>
-      <c r="G30">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>79</v>
-      </c>
-      <c r="B33">
-        <v>5</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
       <c r="D33">
-        <v>5</v>
+        <v>38</v>
+      </c>
+      <c r="E33">
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D34">
+        <v>28</v>
       </c>
       <c r="E34">
-        <v>38</v>
-      </c>
-      <c r="F34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>165</v>
+      </c>
+      <c r="B37">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
+      <c r="D38" t="s">
+        <v>167</v>
+      </c>
+      <c r="E38" t="s">
+        <v>168</v>
+      </c>
+      <c r="F38">
+        <v>35</v>
+      </c>
+      <c r="G38">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>20</v>
+      </c>
+      <c r="C41">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
+      </c>
+      <c r="E43">
         <v>34</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35">
-        <v>30</v>
-      </c>
-      <c r="F35">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>103</v>
+      </c>
+      <c r="B46">
         <v>20</v>
       </c>
-      <c r="C38">
-        <v>10</v>
-      </c>
-      <c r="D38">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>85</v>
-      </c>
-      <c r="E39">
-        <v>31</v>
-      </c>
-      <c r="F39">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>63</v>
-      </c>
-      <c r="D40" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40">
-        <v>38</v>
-      </c>
-      <c r="F40">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>69</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43">
-        <v>20</v>
-      </c>
-      <c r="D43">
-        <v>20</v>
-      </c>
-      <c r="E43">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>74</v>
-      </c>
-      <c r="C44" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" t="s">
-        <v>77</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-      <c r="F44">
-        <v>40</v>
-      </c>
-      <c r="G44">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>74</v>
-      </c>
-      <c r="C45" t="s">
-        <v>87</v>
-      </c>
-      <c r="D45" t="s">
-        <v>77</v>
-      </c>
-      <c r="E45" t="s">
-        <v>63</v>
-      </c>
-      <c r="F45">
-        <v>40</v>
-      </c>
-      <c r="G45">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
-        <v>74</v>
-      </c>
-      <c r="C46" t="s">
-        <v>87</v>
-      </c>
-      <c r="D46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E46" t="s">
-        <v>68</v>
-      </c>
-      <c r="F46">
-        <v>40</v>
-      </c>
-      <c r="G46">
-        <v>36</v>
+      <c r="C46">
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
-      </c>
-      <c r="D47" t="s">
-        <v>77</v>
-      </c>
-      <c r="E47" t="s">
-        <v>89</v>
-      </c>
-      <c r="F47">
+        <v>81</v>
+      </c>
+      <c r="D47">
         <v>40</v>
       </c>
-      <c r="G47">
-        <v>35</v>
+      <c r="E47">
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>87</v>
-      </c>
-      <c r="D48" t="s">
+        <v>78</v>
+      </c>
+      <c r="D48">
+        <v>35</v>
+      </c>
+      <c r="E48">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
         <v>75</v>
       </c>
-      <c r="E48" t="s">
-        <v>88</v>
-      </c>
-      <c r="F48">
-        <v>40</v>
-      </c>
-      <c r="G48">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>90</v>
-      </c>
       <c r="C49" t="s">
-        <v>87</v>
-      </c>
-      <c r="D49" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" t="s">
-        <v>88</v>
-      </c>
-      <c r="F49">
-        <v>40</v>
-      </c>
-      <c r="G49">
+        <v>62</v>
+      </c>
+      <c r="D49">
+        <v>30</v>
+      </c>
+      <c r="E49">
         <v>33</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
-        <v>90</v>
-      </c>
-      <c r="C50" t="s">
-        <v>87</v>
-      </c>
-      <c r="D50" t="s">
-        <v>75</v>
-      </c>
-      <c r="E50" t="s">
-        <v>68</v>
-      </c>
-      <c r="F50">
-        <v>40</v>
-      </c>
-      <c r="G50">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" t="s">
-        <v>75</v>
-      </c>
-      <c r="E51" t="s">
-        <v>68</v>
-      </c>
-      <c r="F51">
-        <v>33</v>
-      </c>
-      <c r="G51">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>104</v>
-      </c>
-      <c r="B54">
-        <v>10</v>
-      </c>
-      <c r="C54">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>144</v>
+      </c>
+      <c r="B52">
+        <v>200</v>
+      </c>
+      <c r="C52">
         <v>20</v>
       </c>
+      <c r="E52" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
       <c r="D54">
-        <v>10</v>
-      </c>
-      <c r="F54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E55">
-        <v>35</v>
-      </c>
-      <c r="F55">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B57">
-        <v>20</v>
-      </c>
-      <c r="C57">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>77</v>
-      </c>
-      <c r="C58" t="s">
-        <v>78</v>
-      </c>
-      <c r="D58">
-        <v>40</v>
-      </c>
-      <c r="E58">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B59" t="s">
-        <v>75</v>
-      </c>
-      <c r="C59" t="s">
-        <v>62</v>
-      </c>
-      <c r="D59">
-        <v>30</v>
-      </c>
-      <c r="E59">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>103</v>
-      </c>
-      <c r="B62">
-        <v>20</v>
-      </c>
-      <c r="C62">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>81</v>
-      </c>
-      <c r="D63">
-        <v>40</v>
-      </c>
-      <c r="E63">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64">
-        <v>35</v>
-      </c>
-      <c r="E64">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" t="s">
-        <v>62</v>
-      </c>
-      <c r="D65">
-        <v>30</v>
-      </c>
-      <c r="E65">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68">
-        <v>20</v>
-      </c>
-      <c r="C68">
-        <v>20</v>
-      </c>
-      <c r="D68">
-        <v>20</v>
-      </c>
-      <c r="E68">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>119</v>
-      </c>
-      <c r="H68" t="s">
-        <v>120</v>
-      </c>
-      <c r="I68" t="s">
-        <v>121</v>
-      </c>
-      <c r="J68" t="s">
-        <v>122</v>
-      </c>
-      <c r="K68" t="s">
-        <v>123</v>
-      </c>
-      <c r="L68" t="s">
-        <v>124</v>
-      </c>
-      <c r="M68" t="s">
-        <v>128</v>
-      </c>
-      <c r="N68" t="s">
-        <v>129</v>
-      </c>
-      <c r="O68" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
-        <v>90</v>
-      </c>
-      <c r="C69" t="s">
-        <v>115</v>
-      </c>
-      <c r="D69" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" t="s">
-        <v>127</v>
-      </c>
-      <c r="F69">
-        <v>41</v>
-      </c>
-      <c r="G69">
-        <v>7</v>
-      </c>
-      <c r="H69">
-        <v>11</v>
-      </c>
-      <c r="I69">
-        <v>7</v>
-      </c>
-      <c r="J69">
-        <v>15</v>
-      </c>
-      <c r="K69">
-        <v>15</v>
-      </c>
-      <c r="L69">
-        <v>17</v>
-      </c>
-      <c r="M69">
-        <f>SUM(G69:I69)</f>
-        <v>25</v>
-      </c>
-      <c r="N69">
-        <f>SUM(J69:L69)</f>
         <v>47</v>
       </c>
-      <c r="O69">
-        <f>SUM(G69:L69)</f>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
-        <v>126</v>
-      </c>
-      <c r="C70" t="s">
-        <v>115</v>
-      </c>
-      <c r="D70" t="s">
-        <v>89</v>
-      </c>
-      <c r="E70" t="s">
-        <v>127</v>
-      </c>
-      <c r="F70">
-        <v>37</v>
-      </c>
-      <c r="G70">
-        <v>7</v>
-      </c>
-      <c r="H70">
-        <v>11</v>
-      </c>
-      <c r="I70">
-        <v>7</v>
-      </c>
-      <c r="J70">
-        <v>17</v>
-      </c>
-      <c r="K70">
-        <v>15</v>
-      </c>
-      <c r="L70">
-        <v>14</v>
-      </c>
-      <c r="M70">
-        <f>SUM(G70:I70)</f>
-        <v>25</v>
-      </c>
-      <c r="N70">
-        <f>SUM(J70:L70)</f>
-        <v>46</v>
-      </c>
-      <c r="O70">
-        <f>SUM(G70:L70)</f>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="C71" t="s">
-        <v>67</v>
-      </c>
-      <c r="D71" t="s">
-        <v>72</v>
-      </c>
-      <c r="E71" t="s">
-        <v>127</v>
-      </c>
-      <c r="F71">
-        <v>37</v>
-      </c>
-      <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71">
-        <v>12</v>
-      </c>
-      <c r="I71">
-        <v>9</v>
-      </c>
-      <c r="J71">
-        <v>12</v>
-      </c>
-      <c r="K71">
-        <v>12</v>
-      </c>
-      <c r="L71">
-        <v>9</v>
-      </c>
-      <c r="M71">
-        <f>SUM(G71:I71)</f>
-        <v>29</v>
-      </c>
-      <c r="N71">
-        <f>SUM(J71:L71)</f>
-        <v>33</v>
-      </c>
-      <c r="O71">
-        <f>SUM(G71:L71)</f>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>144</v>
-      </c>
-      <c r="B74">
-        <v>200</v>
-      </c>
-      <c r="C74">
-        <v>20</v>
-      </c>
-      <c r="E74" t="s">
-        <v>146</v>
-      </c>
-      <c r="F74" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" t="s">
-        <v>145</v>
-      </c>
-      <c r="D76">
-        <v>47</v>
-      </c>
-      <c r="E76">
+      <c r="E54">
         <v>21</v>
       </c>
-      <c r="F76">
+      <c r="F54">
         <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80">
-        <v>15</v>
-      </c>
-      <c r="D80" t="s">
-        <v>146</v>
-      </c>
-      <c r="E80" t="s">
-        <v>147</v>
-      </c>
-      <c r="F80" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B81" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81">
-        <v>38</v>
-      </c>
-      <c r="D81" t="s">
-        <v>83</v>
-      </c>
-      <c r="E81">
-        <v>12</v>
-      </c>
-      <c r="F81">
-        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -3142,4 +2380,1173 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1">
+        <v>400</v>
+      </c>
+      <c r="C1">
+        <v>150</v>
+      </c>
+      <c r="D1">
+        <v>75</v>
+      </c>
+      <c r="E1">
+        <v>40</v>
+      </c>
+      <c r="G1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" t="s">
+        <v>111</v>
+      </c>
+      <c r="K1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L1" t="s">
+        <v>112</v>
+      </c>
+      <c r="M1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2">
+        <v>37</v>
+      </c>
+      <c r="G2">
+        <v>35</v>
+      </c>
+      <c r="H2">
+        <v>36</v>
+      </c>
+      <c r="I2">
+        <v>32</v>
+      </c>
+      <c r="J2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K2">
+        <v>36</v>
+      </c>
+      <c r="L2">
+        <v>36</v>
+      </c>
+      <c r="M2">
+        <v>36</v>
+      </c>
+      <c r="N2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>37</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>35</v>
+      </c>
+      <c r="I3">
+        <v>33</v>
+      </c>
+      <c r="J3" t="s">
+        <v>83</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>35</v>
+      </c>
+      <c r="M3">
+        <v>36</v>
+      </c>
+      <c r="N3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6">
+        <v>100</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K6" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" t="s">
+        <v>112</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7">
+        <v>34</v>
+      </c>
+      <c r="G7">
+        <v>31</v>
+      </c>
+      <c r="H7">
+        <v>31</v>
+      </c>
+      <c r="I7">
+        <v>30</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7">
+        <v>32</v>
+      </c>
+      <c r="L7">
+        <v>31</v>
+      </c>
+      <c r="M7">
+        <v>32</v>
+      </c>
+      <c r="N7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8">
+        <v>32</v>
+      </c>
+      <c r="G8">
+        <v>31</v>
+      </c>
+      <c r="H8">
+        <v>31</v>
+      </c>
+      <c r="I8">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8">
+        <v>31</v>
+      </c>
+      <c r="L8">
+        <v>31</v>
+      </c>
+      <c r="M8">
+        <v>31</v>
+      </c>
+      <c r="N8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>31</v>
+      </c>
+      <c r="I9">
+        <v>31</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9">
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>31</v>
+      </c>
+      <c r="M9">
+        <v>31</v>
+      </c>
+      <c r="N9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>24</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>30</v>
+      </c>
+      <c r="I10">
+        <v>31</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10">
+        <v>30</v>
+      </c>
+      <c r="L10">
+        <v>30</v>
+      </c>
+      <c r="M10">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13">
+        <v>120</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" t="s">
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>107</v>
+      </c>
+      <c r="L13" t="s">
+        <v>112</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>27</v>
+      </c>
+      <c r="H14">
+        <v>27</v>
+      </c>
+      <c r="I14">
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14">
+        <v>28</v>
+      </c>
+      <c r="L14">
+        <v>27</v>
+      </c>
+      <c r="M14">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+      <c r="G15">
+        <v>27</v>
+      </c>
+      <c r="H15">
+        <v>27</v>
+      </c>
+      <c r="I15">
+        <v>26</v>
+      </c>
+      <c r="J15" t="s">
+        <v>83</v>
+      </c>
+      <c r="K15">
+        <v>28</v>
+      </c>
+      <c r="L15">
+        <v>27</v>
+      </c>
+      <c r="M15">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16">
+        <v>31</v>
+      </c>
+      <c r="G16">
+        <v>27</v>
+      </c>
+      <c r="H16">
+        <v>27</v>
+      </c>
+      <c r="I16">
+        <v>26</v>
+      </c>
+      <c r="J16" t="s">
+        <v>83</v>
+      </c>
+      <c r="K16">
+        <v>27</v>
+      </c>
+      <c r="L16">
+        <v>27</v>
+      </c>
+      <c r="M16">
+        <v>27</v>
+      </c>
+      <c r="N16">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>26</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s">
+        <v>83</v>
+      </c>
+      <c r="K17">
+        <v>26</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21">
+        <v>38</v>
+      </c>
+      <c r="G21">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>82</v>
+      </c>
+      <c r="F22">
+        <v>38</v>
+      </c>
+      <c r="G22">
+        <v>40</v>
+      </c>
+      <c r="H22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23">
+        <v>30</v>
+      </c>
+      <c r="G23">
+        <v>40</v>
+      </c>
+      <c r="H23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27">
+        <v>5</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
+      </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+      <c r="F33">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" t="s">
+        <v>63</v>
+      </c>
+      <c r="D34" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" t="s">
+        <v>87</v>
+      </c>
+      <c r="D38" t="s">
+        <v>77</v>
+      </c>
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38">
+        <v>40</v>
+      </c>
+      <c r="G38">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+      <c r="D39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39">
+        <v>40</v>
+      </c>
+      <c r="G39">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>74</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>68</v>
+      </c>
+      <c r="F40">
+        <v>40</v>
+      </c>
+      <c r="G40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" t="s">
+        <v>77</v>
+      </c>
+      <c r="E41" t="s">
+        <v>89</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+      <c r="G41">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" t="s">
+        <v>75</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42">
+        <v>40</v>
+      </c>
+      <c r="G42">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>75</v>
+      </c>
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43">
+        <v>40</v>
+      </c>
+      <c r="G43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" t="s">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>68</v>
+      </c>
+      <c r="F44">
+        <v>40</v>
+      </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+      <c r="C45" t="s">
+        <v>67</v>
+      </c>
+      <c r="D45" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45">
+        <v>33</v>
+      </c>
+      <c r="G45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>104</v>
+      </c>
+      <c r="B48">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>20</v>
+      </c>
+      <c r="D48">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>90</v>
+      </c>
+      <c r="D49" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49">
+        <v>35</v>
+      </c>
+      <c r="F49">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52">
+        <v>20</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>119</v>
+      </c>
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" t="s">
+        <v>121</v>
+      </c>
+      <c r="J52" t="s">
+        <v>122</v>
+      </c>
+      <c r="K52" t="s">
+        <v>123</v>
+      </c>
+      <c r="L52" t="s">
+        <v>124</v>
+      </c>
+      <c r="M52" t="s">
+        <v>128</v>
+      </c>
+      <c r="N52" t="s">
+        <v>129</v>
+      </c>
+      <c r="O52" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>115</v>
+      </c>
+      <c r="D53" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" t="s">
+        <v>127</v>
+      </c>
+      <c r="F53">
+        <v>41</v>
+      </c>
+      <c r="G53">
+        <v>7</v>
+      </c>
+      <c r="H53">
+        <v>11</v>
+      </c>
+      <c r="I53">
+        <v>7</v>
+      </c>
+      <c r="J53">
+        <v>15</v>
+      </c>
+      <c r="K53">
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <f>SUM(G53:I53)</f>
+        <v>25</v>
+      </c>
+      <c r="N53">
+        <f>SUM(J53:L53)</f>
+        <v>47</v>
+      </c>
+      <c r="O53">
+        <f>SUM(G53:L53)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>126</v>
+      </c>
+      <c r="C54" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54">
+        <v>37</v>
+      </c>
+      <c r="G54">
+        <v>7</v>
+      </c>
+      <c r="H54">
+        <v>11</v>
+      </c>
+      <c r="I54">
+        <v>7</v>
+      </c>
+      <c r="J54">
+        <v>17</v>
+      </c>
+      <c r="K54">
+        <v>15</v>
+      </c>
+      <c r="L54">
+        <v>14</v>
+      </c>
+      <c r="M54">
+        <f>SUM(G54:I54)</f>
+        <v>25</v>
+      </c>
+      <c r="N54">
+        <f>SUM(J54:L54)</f>
+        <v>46</v>
+      </c>
+      <c r="O54">
+        <f>SUM(G54:L54)</f>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>126</v>
+      </c>
+      <c r="C55" t="s">
+        <v>67</v>
+      </c>
+      <c r="D55" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" t="s">
+        <v>127</v>
+      </c>
+      <c r="F55">
+        <v>37</v>
+      </c>
+      <c r="G55">
+        <v>8</v>
+      </c>
+      <c r="H55">
+        <v>12</v>
+      </c>
+      <c r="I55">
+        <v>9</v>
+      </c>
+      <c r="J55">
+        <v>12</v>
+      </c>
+      <c r="K55">
+        <v>12</v>
+      </c>
+      <c r="L55">
+        <v>9</v>
+      </c>
+      <c r="M55">
+        <f>SUM(G55:I55)</f>
+        <v>29</v>
+      </c>
+      <c r="N55">
+        <f>SUM(J55:L55)</f>
+        <v>33</v>
+      </c>
+      <c r="O55">
+        <f>SUM(G55:L55)</f>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58">
+        <v>15</v>
+      </c>
+      <c r="D58" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>83</v>
+      </c>
+      <c r="E59">
+        <v>12</v>
+      </c>
+      <c r="F59">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="173">
   <si>
     <t>pine</t>
   </si>
@@ -558,6 +558,18 @@
   </si>
   <si>
     <t>Noble Artifact Fragment</t>
+  </si>
+  <si>
+    <t>bellows</t>
+  </si>
+  <si>
+    <t>Salandrin Plank</t>
+  </si>
+  <si>
+    <t>Walhein Leather</t>
+  </si>
+  <si>
+    <t>plane</t>
   </si>
 </sst>
 </file>
@@ -1718,10 +1730,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63:E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2373,6 +2385,70 @@
       </c>
       <c r="F54">
         <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58">
+        <v>52</v>
+      </c>
+      <c r="E58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>172</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>170</v>
+      </c>
+      <c r="D62">
+        <v>42</v>
+      </c>
+      <c r="E62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63">
+        <v>42</v>
+      </c>
+      <c r="E63">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="202">
   <si>
     <t>pine</t>
   </si>
@@ -570,6 +570,94 @@
   </si>
   <si>
     <t>plane</t>
+  </si>
+  <si>
+    <t>Ressource : Norstrian mountain goat - (Diff: 30)</t>
+  </si>
+  <si>
+    <t>Renaissance Mountains</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Foundation : Lanferite Block</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>Pile Foundation : Solone Plank</t>
+  </si>
+  <si>
+    <t>Gathering infrastructure : Hunting area (Renaissance Mountains) (15 frames/vaults, 5 fundations + 300 free space).</t>
+  </si>
+  <si>
+    <t>Suggested worker type : Homotroglodytus.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prerequisite : prestige ().</t>
+  </si>
+  <si>
+    <t>You can also use "Yraen". Include prestige (20) below.</t>
+  </si>
+  <si>
+    <t>You can also use "Boarserker". Include comfort (1) below.</t>
+  </si>
+  <si>
+    <t>You can also use "Borzem negotiator - CHEAP TO RECRUIT - NO WING NEEDED". Include comfort (5) below.</t>
+  </si>
+  <si>
+    <t>You can also use "Yormun Gan". Include (0) below.</t>
+  </si>
+  <si>
+    <t>Framework : Oak Plank</t>
+  </si>
+  <si>
+    <t>Wall of Logs : Oak Plank</t>
+  </si>
+  <si>
+    <t>Slate Roof : Chanderian Plank</t>
+  </si>
+  <si>
+    <t>Comfort required : 5 -- Prestige required : 20</t>
+  </si>
+  <si>
+    <t>Accommodation building : Hut (2 frames/vaults, 2 walls, 1 roof + 1000 free space)</t>
+  </si>
+  <si>
+    <t>Furniture 1 : Cedar throne</t>
+  </si>
+  <si>
+    <t>Furniture 2 : -</t>
+  </si>
+  <si>
+    <t>Beastarium</t>
+  </si>
+  <si>
+    <t> 20 Fortifications, 20 Towers, 20 Foundations, 20 Stone Walls, 1 Trap, 1 Course, 1 Fence and 1 Mill</t>
+  </si>
+  <si>
+    <t>Marapis</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>Wyvern Leather</t>
+  </si>
+  <si>
+    <t>Drosade Glass</t>
+  </si>
+  <si>
+    <t>Chimeric Leather</t>
+  </si>
+  <si>
+    <t>Hemp Fiber</t>
+  </si>
+  <si>
+    <t>Linen Fiber</t>
   </si>
 </sst>
 </file>
@@ -894,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F116"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1552,18 +1640,34 @@
         <v>154</v>
       </c>
     </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B116" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1706,19 +1810,144 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.35</v>
+      </c>
+      <c r="F40">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -1730,10 +1959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N63"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63:E63"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1910,545 +2139,506 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="B7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C7">
-        <v>10</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="C8" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" t="s">
-        <v>82</v>
+        <v>78</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>38</v>
-      </c>
-      <c r="F8">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>126</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" t="s">
-        <v>82</v>
+        <v>62</v>
+      </c>
+      <c r="D9">
+        <v>30</v>
       </c>
       <c r="E9">
-        <v>38</v>
-      </c>
-      <c r="F9">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>65</v>
-      </c>
-      <c r="E10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>103</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+      <c r="C12">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14">
+        <v>35</v>
+      </c>
+      <c r="E14">
         <v>36</v>
-      </c>
-      <c r="F10">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11">
-        <v>31</v>
-      </c>
-      <c r="F11">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" t="s">
-        <v>127</v>
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>30</v>
       </c>
       <c r="E15">
-        <v>38</v>
-      </c>
-      <c r="F15">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
         <v>20</v>
       </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" t="s">
-        <v>82</v>
-      </c>
-      <c r="E19">
-        <v>38</v>
-      </c>
-      <c r="F19">
-        <v>43</v>
+      <c r="E18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" t="s">
-        <v>161</v>
+        <v>145</v>
+      </c>
+      <c r="D20">
+        <v>47</v>
       </c>
       <c r="E20">
+        <v>21</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24">
+        <v>52</v>
+      </c>
+      <c r="E24">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30">
         <v>38</v>
       </c>
-      <c r="F20">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" t="s">
-        <v>75</v>
-      </c>
-      <c r="E21">
+      <c r="E30">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31">
+        <v>28</v>
+      </c>
+      <c r="E31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>5</v>
+      </c>
+      <c r="E34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>166</v>
+      </c>
+      <c r="D35" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35">
+        <v>35</v>
+      </c>
+      <c r="G35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38">
+        <v>25</v>
+      </c>
+      <c r="C38">
+        <v>10</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>159</v>
+      </c>
+      <c r="C39" t="s">
+        <v>63</v>
+      </c>
+      <c r="D39" t="s">
+        <v>163</v>
+      </c>
+      <c r="E39">
         <v>38</v>
       </c>
-      <c r="F21">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B22" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s">
-        <v>75</v>
-      </c>
-      <c r="E22">
+      <c r="F39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>159</v>
+      </c>
+      <c r="C40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40">
         <v>38</v>
       </c>
-      <c r="F22">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
-      </c>
-      <c r="E23">
+      <c r="F40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41">
+        <v>36</v>
+      </c>
+      <c r="F41">
         <v>38</v>
       </c>
-      <c r="F23">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>162</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26">
-        <v>10</v>
-      </c>
-      <c r="D26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44">
+        <v>15</v>
+      </c>
+      <c r="C44">
+        <v>15</v>
+      </c>
+      <c r="D44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" t="s">
+        <v>163</v>
+      </c>
+      <c r="D45" t="s">
         <v>159</v>
       </c>
-      <c r="C27" t="s">
+      <c r="E45">
+        <v>38</v>
+      </c>
+      <c r="F45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>63</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C46" t="s">
         <v>163</v>
       </c>
-      <c r="E27">
+      <c r="D46" t="s">
+        <v>126</v>
+      </c>
+      <c r="E46">
         <v>38</v>
       </c>
-      <c r="F27">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
-        <v>159</v>
-      </c>
-      <c r="C28" t="s">
-        <v>63</v>
-      </c>
-      <c r="D28" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28">
-        <v>38</v>
-      </c>
-      <c r="F28">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>159</v>
-      </c>
-      <c r="C29" t="s">
-        <v>63</v>
-      </c>
-      <c r="D29" t="s">
-        <v>65</v>
-      </c>
-      <c r="E29">
+      <c r="F46">
         <v>36</v>
-      </c>
-      <c r="F29">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>164</v>
-      </c>
-      <c r="B32">
-        <v>15</v>
-      </c>
-      <c r="C32">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D33">
-        <v>38</v>
-      </c>
-      <c r="E33">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
-      </c>
-      <c r="D34">
-        <v>28</v>
-      </c>
-      <c r="E34">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>165</v>
-      </c>
-      <c r="B37">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>5</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" t="s">
-        <v>166</v>
-      </c>
-      <c r="D38" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38">
-        <v>35</v>
-      </c>
-      <c r="G38">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42">
-        <v>40</v>
-      </c>
-      <c r="E42">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" t="s">
-        <v>62</v>
-      </c>
-      <c r="D43">
-        <v>30</v>
-      </c>
-      <c r="E43">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>103</v>
-      </c>
-      <c r="B46">
-        <v>20</v>
-      </c>
-      <c r="C46">
-        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>81</v>
-      </c>
-      <c r="D47">
-        <v>40</v>
+        <v>82</v>
+      </c>
+      <c r="D47" t="s">
+        <v>159</v>
       </c>
       <c r="E47">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="F47">
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="C48" t="s">
-        <v>78</v>
-      </c>
-      <c r="D48">
+        <v>82</v>
+      </c>
+      <c r="D48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E48">
+        <v>38</v>
+      </c>
+      <c r="F48">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>196</v>
+      </c>
+      <c r="B51">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" t="s">
+        <v>86</v>
+      </c>
+      <c r="D52" t="s">
+        <v>198</v>
+      </c>
+      <c r="E52">
+        <v>55</v>
+      </c>
+      <c r="F52">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" t="s">
+        <v>198</v>
+      </c>
+      <c r="E53">
+        <v>43</v>
+      </c>
+      <c r="F53">
         <v>35</v>
-      </c>
-      <c r="E48">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D49">
-        <v>30</v>
-      </c>
-      <c r="E49">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52">
-        <v>200</v>
-      </c>
-      <c r="C52">
-        <v>20</v>
-      </c>
-      <c r="E52" t="s">
-        <v>146</v>
-      </c>
-      <c r="F52" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>62</v>
+        <v>87</v>
       </c>
       <c r="C54" t="s">
-        <v>145</v>
-      </c>
-      <c r="D54">
-        <v>47</v>
+        <v>86</v>
+      </c>
+      <c r="D54" t="s">
+        <v>198</v>
       </c>
       <c r="E54">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F54">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>32</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C57">
-        <v>1</v>
+        <v>20</v>
+      </c>
+      <c r="D57">
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>170</v>
+        <v>86</v>
       </c>
       <c r="C58" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58">
-        <v>52</v>
+        <v>88</v>
+      </c>
+      <c r="D58" t="s">
+        <v>200</v>
       </c>
       <c r="E58">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>172</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
-        <v>163</v>
-      </c>
-      <c r="C62" t="s">
-        <v>170</v>
-      </c>
-      <c r="D62">
-        <v>42</v>
-      </c>
-      <c r="E62">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
-        <v>77</v>
-      </c>
-      <c r="C63" t="s">
-        <v>170</v>
-      </c>
-      <c r="D63">
-        <v>42</v>
-      </c>
-      <c r="E63">
         <v>38</v>
+      </c>
+      <c r="F58">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>88</v>
+      </c>
+      <c r="D59" t="s">
+        <v>201</v>
+      </c>
+      <c r="E59">
+        <v>38</v>
+      </c>
+      <c r="F59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>126</v>
+      </c>
+      <c r="C60" t="s">
+        <v>88</v>
+      </c>
+      <c r="D60" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60">
+        <v>38</v>
+      </c>
+      <c r="F60">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2460,10 +2650,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O59"/>
+  <dimension ref="A1:O83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3621,8 +3811,260 @@
         <v>30</v>
       </c>
     </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>89</v>
+      </c>
+      <c r="D63" t="s">
+        <v>82</v>
+      </c>
+      <c r="E63">
+        <v>38</v>
+      </c>
+      <c r="F63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>126</v>
+      </c>
+      <c r="C64" t="s">
+        <v>89</v>
+      </c>
+      <c r="D64" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64">
+        <v>38</v>
+      </c>
+      <c r="F64">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>159</v>
+      </c>
+      <c r="C65" t="s">
+        <v>89</v>
+      </c>
+      <c r="D65" t="s">
+        <v>65</v>
+      </c>
+      <c r="E65">
+        <v>36</v>
+      </c>
+      <c r="F65">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66" t="s">
+        <v>89</v>
+      </c>
+      <c r="D66" t="s">
+        <v>65</v>
+      </c>
+      <c r="E66">
+        <v>31</v>
+      </c>
+      <c r="F66">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>157</v>
+      </c>
+      <c r="B69">
+        <v>25</v>
+      </c>
+      <c r="C69">
+        <v>10</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+      <c r="C70" t="s">
+        <v>88</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+      <c r="E70">
+        <v>38</v>
+      </c>
+      <c r="F70">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B73">
+        <v>20</v>
+      </c>
+      <c r="C73">
+        <v>10</v>
+      </c>
+      <c r="D73">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" t="s">
+        <v>88</v>
+      </c>
+      <c r="D74" t="s">
+        <v>82</v>
+      </c>
+      <c r="E74">
+        <v>38</v>
+      </c>
+      <c r="F74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" t="s">
+        <v>88</v>
+      </c>
+      <c r="D75" t="s">
+        <v>161</v>
+      </c>
+      <c r="E75">
+        <v>38</v>
+      </c>
+      <c r="F75">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>86</v>
+      </c>
+      <c r="C76" t="s">
+        <v>88</v>
+      </c>
+      <c r="D76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76">
+        <v>38</v>
+      </c>
+      <c r="F76">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D77" t="s">
+        <v>75</v>
+      </c>
+      <c r="E77">
+        <v>38</v>
+      </c>
+      <c r="F77">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+      <c r="C78" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" t="s">
+        <v>75</v>
+      </c>
+      <c r="E78">
+        <v>38</v>
+      </c>
+      <c r="F78">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>172</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82" t="s">
+        <v>170</v>
+      </c>
+      <c r="D82">
+        <v>42</v>
+      </c>
+      <c r="E82">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83">
+        <v>42</v>
+      </c>
+      <c r="E83">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/recipe.xlsx
+++ b/recipe.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{217173EE-60DA-42BD-83B4-1132945B26AE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="684" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="build" sheetId="5" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="203">
   <si>
     <t>pine</t>
   </si>
@@ -658,12 +659,15 @@
   </si>
   <si>
     <t>Linen Fiber</t>
+  </si>
+  <si>
+    <t>Bedding : Norstrian Mohair Fabric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -981,7 +985,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F116"/>
   <sheetViews>
     <sheetView topLeftCell="A88" workbookViewId="0">
@@ -1663,7 +1667,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1958,11 +1962,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N60"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2246,153 +2250,170 @@
         <v>147</v>
       </c>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19">
+        <v>56</v>
+      </c>
+      <c r="E19">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>8</v>
+      </c>
+    </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s">
         <v>145</v>
       </c>
       <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21">
         <v>47</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>21</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>169</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>170</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>171</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>52</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>164</v>
       </c>
-      <c r="B29">
+      <c r="B30">
         <v>15</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30">
-        <v>38</v>
-      </c>
-      <c r="E30">
-        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C31" t="s">
         <v>63</v>
       </c>
       <c r="D31">
+        <v>38</v>
+      </c>
+      <c r="E31">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32">
         <v>28</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>165</v>
       </c>
-      <c r="B34">
+      <c r="B35">
         <v>10</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>5</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>5</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
         <v>78</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>166</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>167</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>168</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>35</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>162</v>
       </c>
-      <c r="B38">
+      <c r="B39">
         <v>25</v>
       </c>
-      <c r="C38">
+      <c r="C39">
         <v>10</v>
       </c>
-      <c r="D38">
+      <c r="D39">
         <v>5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B39" t="s">
-        <v>159</v>
-      </c>
-      <c r="C39" t="s">
-        <v>63</v>
-      </c>
-      <c r="D39" t="s">
-        <v>163</v>
-      </c>
-      <c r="E39">
-        <v>38</v>
-      </c>
-      <c r="F39">
-        <v>43</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
@@ -2403,13 +2424,13 @@
         <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="E40">
         <v>38</v>
       </c>
       <c r="F40">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
@@ -2420,44 +2441,44 @@
         <v>63</v>
       </c>
       <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41">
+        <v>38</v>
+      </c>
+      <c r="F41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>159</v>
+      </c>
+      <c r="C42" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" t="s">
         <v>65</v>
       </c>
-      <c r="E41">
+      <c r="E42">
         <v>36</v>
       </c>
-      <c r="F41">
+      <c r="F42">
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>21</v>
       </c>
-      <c r="B44">
+      <c r="B45">
         <v>15</v>
       </c>
-      <c r="C44">
+      <c r="C45">
         <v>15</v>
       </c>
-      <c r="D44">
+      <c r="D45">
         <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>163</v>
-      </c>
-      <c r="D45" t="s">
-        <v>159</v>
-      </c>
-      <c r="E45">
-        <v>38</v>
-      </c>
-      <c r="F45">
-        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
@@ -2468,13 +2489,13 @@
         <v>163</v>
       </c>
       <c r="D46" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E46">
         <v>38</v>
       </c>
       <c r="F46">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
@@ -2482,16 +2503,16 @@
         <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>82</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>159</v>
+        <v>126</v>
       </c>
       <c r="E47">
         <v>38</v>
       </c>
       <c r="F47">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
@@ -2502,49 +2523,49 @@
         <v>82</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="E48">
         <v>38</v>
       </c>
       <c r="F48">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49">
+        <v>38</v>
+      </c>
+      <c r="F49">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>196</v>
       </c>
-      <c r="B51">
+      <c r="B52">
         <v>15</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>30</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
-        <v>197</v>
-      </c>
-      <c r="C52" t="s">
-        <v>86</v>
-      </c>
-      <c r="D52" t="s">
-        <v>198</v>
-      </c>
-      <c r="E52">
-        <v>55</v>
-      </c>
-      <c r="F52">
-        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C53" t="s">
         <v>86</v>
@@ -2553,15 +2574,15 @@
         <v>198</v>
       </c>
       <c r="E53">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F53">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>87</v>
+        <v>199</v>
       </c>
       <c r="C54" t="s">
         <v>86</v>
@@ -2570,74 +2591,91 @@
         <v>198</v>
       </c>
       <c r="E54">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F54">
         <v>35</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>87</v>
+      </c>
+      <c r="C55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D55" t="s">
+        <v>198</v>
+      </c>
+      <c r="E55">
+        <v>40</v>
+      </c>
+      <c r="F55">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>32</v>
       </c>
-      <c r="B57">
+      <c r="B58">
         <v>50</v>
       </c>
-      <c r="C57">
+      <c r="C58">
         <v>20</v>
       </c>
-      <c r="D57">
+      <c r="D58">
         <v>20</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>88</v>
-      </c>
-      <c r="D58" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58">
-        <v>38</v>
-      </c>
-      <c r="F58">
-        <v>44</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
         <v>88</v>
       </c>
       <c r="D59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E59">
         <v>38</v>
       </c>
       <c r="F59">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="C60" t="s">
         <v>88</v>
       </c>
       <c r="D60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E60">
         <v>38</v>
       </c>
       <c r="F60">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>200</v>
+      </c>
+      <c r="E61">
+        <v>38</v>
+      </c>
+      <c r="F61">
         <v>41</v>
       </c>
     </row>
@@ -2649,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O83"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
